--- a/Proverbs Structure.xlsx
+++ b/Proverbs Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10f34525492f769e/Logos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\finge_000\Projects\Currier\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1" calcCompleted="0" calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Scoffer</t>
   </si>
@@ -101,9 +101,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">Friend </t>
-  </si>
-  <si>
-    <t>XB</t>
   </si>
   <si>
     <t>XB</t>
@@ -123,10 +117,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts>
-    <numFmt numFmtId="93" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts x14ac:knownFonts="1" count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,21 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="93" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="93" fontId="0" fillId="0" borderId="1" applyBorder="1"/>
-    <xf numFmtId="93" fontId="0" fillId="5" borderId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:BI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="H1">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,143 +524,143 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <f>B1+1</f>
+        <f t="shared" ref="C1:AK1" si="0">B1+1</f>
         <v>2</v>
       </c>
       <c r="D1">
-        <f>C1+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E1">
-        <f>D1+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F1">
-        <f>E1+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G1">
-        <f>F1+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H1">
-        <f>G1+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I1">
-        <f>H1+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J1">
-        <f>I1+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K1">
-        <f>J1+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L1">
-        <f>K1+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M1">
-        <f>L1+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N1">
-        <f>M1+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="O1">
-        <f>N1+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="P1">
-        <f>O1+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Q1">
-        <f>P1+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="R1">
-        <f>Q1+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="S1">
-        <f>R1+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="T1">
-        <f>S1+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="U1">
-        <f>T1+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="V1">
-        <f>U1+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="W1">
-        <f>V1+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="X1">
-        <f>W1+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="Y1">
-        <f>X1+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="Z1">
-        <f>Y1+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="AA1">
-        <f>Z1+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="AB1">
-        <f>AA1+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AC1">
-        <f>AB1+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AD1">
-        <f>AC1+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AE1">
-        <f>AD1+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AF1">
-        <f>AE1+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AG1">
-        <f>AF1+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AH1">
-        <f>AG1+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="AI1">
-        <f>AH1+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AJ1">
-        <f>AI1+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="AK1">
-        <f>AJ1+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -716,15 +705,15 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AM2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" t="s">
         <v>27</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+1</f>
+        <f t="shared" ref="A3:A32" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
@@ -772,7 +761,7 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>A3+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
@@ -820,7 +809,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>A4+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
@@ -868,7 +857,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>A5+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
@@ -916,7 +905,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>A6+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
@@ -964,7 +953,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>A7+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
@@ -1012,7 +1001,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>A8+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="2"/>
@@ -1054,7 +1043,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>A9+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
@@ -1102,7 +1091,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>A10+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
@@ -1150,7 +1139,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>A11+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
@@ -1202,7 +1191,7 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>A12+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
@@ -1249,7 +1238,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>A13+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1293,7 +1282,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>A14+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1337,7 +1326,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>A15+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
@@ -1379,9 +1368,9 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
@@ -1421,9 +1410,9 @@
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="5"/>
@@ -1465,13 +1454,13 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1488,15 +1477,15 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="10" t="s">
-        <v>30</v>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -1510,34 +1499,34 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
-      <c r="BF19" s="13"/>
-      <c r="BG19" s="13"/>
-      <c r="BH19" s="13"/>
-      <c r="BI19" s="13"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="8"/>
+      <c r="BA19" s="8"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+      <c r="BE19" s="8"/>
+      <c r="BF19" s="8"/>
+      <c r="BG19" s="8"/>
+      <c r="BH19" s="8"/>
+      <c r="BI19" s="8"/>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="5"/>
@@ -1577,9 +1566,9 @@
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
@@ -1619,9 +1608,9 @@
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
@@ -1661,9 +1650,9 @@
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
@@ -1703,9 +1692,9 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="5"/>
@@ -1745,9 +1734,9 @@
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
@@ -1787,9 +1776,9 @@
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
@@ -1829,9 +1818,9 @@
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f>A26+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
@@ -1871,9 +1860,9 @@
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>A27+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
@@ -1913,9 +1902,9 @@
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
@@ -1955,9 +1944,9 @@
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f>A29+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="5"/>
@@ -1997,9 +1986,9 @@
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f>A30+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
@@ -2039,9 +2028,9 @@
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>A31+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="5"/>
